--- a/src/test/java/MonacoAdminPortalPKG/MWC-API-ExcelData/AdminPortalFinalApiListMWCxlsx.xlsx
+++ b/src/test/java/MonacoAdminPortalPKG/MWC-API-ExcelData/AdminPortalFinalApiListMWCxlsx.xlsx
@@ -13,7 +13,7 @@
     <sheet name="AllNegativeTestCase" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AllNegativeTestCase!$A$1:$G$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AllNegativeTestCase!$A$1:$G$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="775">
   <si>
     <r>
       <rPr>
@@ -7702,328 +7702,325 @@
     <t>Expected body</t>
   </si>
   <si>
+    <t>/admin/transaction/read</t>
+  </si>
+  <si>
+    <t>/admin/transaction/fetch</t>
+  </si>
+  <si>
     <t>Row 238</t>
   </si>
   <si>
-    <t>row 239</t>
-  </si>
-  <si>
-    <t>row 240</t>
-  </si>
-  <si>
-    <t>row 241</t>
-  </si>
-  <si>
-    <t>row 242</t>
-  </si>
-  <si>
-    <t>row 243</t>
-  </si>
-  <si>
-    <t>row 244</t>
-  </si>
-  <si>
-    <t>row 245</t>
-  </si>
-  <si>
-    <t>row 246</t>
-  </si>
-  <si>
-    <t>row 247</t>
-  </si>
-  <si>
-    <t>row 248</t>
-  </si>
-  <si>
-    <t>row 249</t>
-  </si>
-  <si>
-    <t>row 250</t>
-  </si>
-  <si>
-    <t>row 251</t>
-  </si>
-  <si>
-    <t>row 252</t>
-  </si>
-  <si>
-    <t>row 253</t>
-  </si>
-  <si>
-    <t>row 254</t>
-  </si>
-  <si>
-    <t>row 255</t>
-  </si>
-  <si>
-    <t>row 256</t>
-  </si>
-  <si>
-    <t>row 257</t>
-  </si>
-  <si>
-    <t>row 258</t>
-  </si>
-  <si>
-    <t>row 259</t>
-  </si>
-  <si>
-    <t>row 260</t>
-  </si>
-  <si>
-    <t>row 261</t>
-  </si>
-  <si>
-    <t>row 262</t>
-  </si>
-  <si>
-    <t>row 263</t>
-  </si>
-  <si>
-    <t>row 264</t>
-  </si>
-  <si>
-    <t>row 265</t>
-  </si>
-  <si>
-    <t>row 266</t>
-  </si>
-  <si>
-    <t>row 267</t>
-  </si>
-  <si>
-    <t>row 268</t>
-  </si>
-  <si>
-    <t>row 269</t>
-  </si>
-  <si>
-    <t>row 270</t>
-  </si>
-  <si>
-    <t>row 271</t>
-  </si>
-  <si>
-    <t>row 272</t>
-  </si>
-  <si>
-    <t>row 273</t>
-  </si>
-  <si>
-    <t>row 274</t>
-  </si>
-  <si>
-    <t>row 275</t>
-  </si>
-  <si>
-    <t>row 276</t>
-  </si>
-  <si>
-    <t>row 277</t>
-  </si>
-  <si>
-    <t>row 278</t>
-  </si>
-  <si>
-    <t>row 279</t>
-  </si>
-  <si>
-    <t>row 280</t>
-  </si>
-  <si>
-    <t>row 281</t>
-  </si>
-  <si>
-    <t>row 282</t>
-  </si>
-  <si>
-    <t>row 283</t>
-  </si>
-  <si>
-    <t>row 284</t>
-  </si>
-  <si>
-    <t>row 285</t>
-  </si>
-  <si>
-    <t>row 286</t>
-  </si>
-  <si>
-    <t>row 287</t>
-  </si>
-  <si>
-    <t>row 288</t>
-  </si>
-  <si>
-    <t>row 289</t>
-  </si>
-  <si>
-    <t>row 290</t>
-  </si>
-  <si>
-    <t>row 291</t>
-  </si>
-  <si>
-    <t>row 292</t>
-  </si>
-  <si>
-    <t>row 293</t>
-  </si>
-  <si>
-    <t>row 294</t>
-  </si>
-  <si>
-    <t>row 295</t>
-  </si>
-  <si>
-    <t>row 296</t>
-  </si>
-  <si>
-    <t>row 297</t>
-  </si>
-  <si>
-    <t>row 298</t>
-  </si>
-  <si>
-    <t>row 299</t>
-  </si>
-  <si>
-    <t>row 300</t>
-  </si>
-  <si>
-    <t>row 301</t>
-  </si>
-  <si>
-    <t>row 302</t>
-  </si>
-  <si>
-    <t>row 303</t>
-  </si>
-  <si>
-    <t>row 304</t>
-  </si>
-  <si>
-    <t>row 305</t>
-  </si>
-  <si>
-    <t>row 306</t>
-  </si>
-  <si>
-    <t>row 307</t>
-  </si>
-  <si>
-    <t>row 308</t>
-  </si>
-  <si>
-    <t>row 309</t>
-  </si>
-  <si>
-    <t>row 310</t>
-  </si>
-  <si>
-    <t>row 311</t>
-  </si>
-  <si>
-    <t>row 312</t>
-  </si>
-  <si>
-    <t>row 313</t>
-  </si>
-  <si>
-    <t>row 314</t>
-  </si>
-  <si>
-    <t>row 315</t>
-  </si>
-  <si>
-    <t>row 316</t>
-  </si>
-  <si>
-    <t>row 317</t>
-  </si>
-  <si>
-    <t>row 318</t>
-  </si>
-  <si>
-    <t>row 319</t>
-  </si>
-  <si>
-    <t>row 320</t>
-  </si>
-  <si>
-    <t>row 321</t>
-  </si>
-  <si>
-    <t>row 322</t>
-  </si>
-  <si>
-    <t>row 323</t>
-  </si>
-  <si>
-    <t>row 324</t>
-  </si>
-  <si>
-    <t>row 325</t>
-  </si>
-  <si>
-    <t>row 326</t>
-  </si>
-  <si>
-    <t>row 327</t>
-  </si>
-  <si>
-    <t>row 328</t>
-  </si>
-  <si>
-    <t>row 329</t>
-  </si>
-  <si>
-    <t>row 330</t>
-  </si>
-  <si>
-    <t>row 331</t>
-  </si>
-  <si>
-    <t>row 332</t>
-  </si>
-  <si>
-    <t>row 333</t>
-  </si>
-  <si>
-    <t>row 334</t>
-  </si>
-  <si>
-    <t>row 335</t>
-  </si>
-  <si>
-    <t>row 336</t>
-  </si>
-  <si>
-    <t>row 337</t>
-  </si>
-  <si>
-    <t>row 338</t>
-  </si>
-  <si>
-    <t>row 339</t>
-  </si>
-  <si>
-    <t>row 340</t>
-  </si>
-  <si>
-    <t>row 341</t>
-  </si>
-  <si>
-    <t>row 342</t>
-  </si>
-  <si>
-    <t>row 343</t>
-  </si>
-  <si>
-    <t>row 344</t>
-  </si>
-  <si>
-    <t>row 345</t>
+    <t>Row 239</t>
+  </si>
+  <si>
+    <t>Row 240</t>
+  </si>
+  <si>
+    <t>Row 241</t>
+  </si>
+  <si>
+    <t>Row 242</t>
+  </si>
+  <si>
+    <t>Row 243</t>
+  </si>
+  <si>
+    <t>Row 244</t>
+  </si>
+  <si>
+    <t>Row 245</t>
+  </si>
+  <si>
+    <t>Row 246</t>
+  </si>
+  <si>
+    <t>Row 247</t>
+  </si>
+  <si>
+    <t>Row 248</t>
+  </si>
+  <si>
+    <t>Row 249</t>
+  </si>
+  <si>
+    <t>Row 250</t>
+  </si>
+  <si>
+    <t>Row 251</t>
+  </si>
+  <si>
+    <t>Row 252</t>
+  </si>
+  <si>
+    <t>Row 253</t>
+  </si>
+  <si>
+    <t>Row 254</t>
+  </si>
+  <si>
+    <t>Row 255</t>
+  </si>
+  <si>
+    <t>Row 256</t>
+  </si>
+  <si>
+    <t>Row 257</t>
+  </si>
+  <si>
+    <t>Row 258</t>
+  </si>
+  <si>
+    <t>Row 259</t>
+  </si>
+  <si>
+    <t>Row 260</t>
+  </si>
+  <si>
+    <t>Row 261</t>
+  </si>
+  <si>
+    <t>Row 262</t>
+  </si>
+  <si>
+    <t>Row 263</t>
+  </si>
+  <si>
+    <t>Row 264</t>
+  </si>
+  <si>
+    <t>Row 265</t>
+  </si>
+  <si>
+    <t>Row 266</t>
+  </si>
+  <si>
+    <t>Row 267</t>
+  </si>
+  <si>
+    <t>Row 268</t>
+  </si>
+  <si>
+    <t>Row 269</t>
+  </si>
+  <si>
+    <t>Row 270</t>
+  </si>
+  <si>
+    <t>Row 271</t>
+  </si>
+  <si>
+    <t>Row 272</t>
+  </si>
+  <si>
+    <t>Row 273</t>
+  </si>
+  <si>
+    <t>Row 274</t>
+  </si>
+  <si>
+    <t>Row 275</t>
+  </si>
+  <si>
+    <t>Row 276</t>
+  </si>
+  <si>
+    <t>Row 277</t>
+  </si>
+  <si>
+    <t>Row 278</t>
+  </si>
+  <si>
+    <t>Row 279</t>
+  </si>
+  <si>
+    <t>Row 280</t>
+  </si>
+  <si>
+    <t>Row 281</t>
+  </si>
+  <si>
+    <t>Row 282</t>
+  </si>
+  <si>
+    <t>Row 283</t>
+  </si>
+  <si>
+    <t>Row 284</t>
+  </si>
+  <si>
+    <t>Row 285</t>
+  </si>
+  <si>
+    <t>Row 286</t>
+  </si>
+  <si>
+    <t>Row 287</t>
+  </si>
+  <si>
+    <t>Row 288</t>
+  </si>
+  <si>
+    <t>Row 289</t>
+  </si>
+  <si>
+    <t>Row 290</t>
+  </si>
+  <si>
+    <t>Row 291</t>
+  </si>
+  <si>
+    <t>Row 292</t>
+  </si>
+  <si>
+    <t>Row 293</t>
+  </si>
+  <si>
+    <t>Row 294</t>
+  </si>
+  <si>
+    <t>Row 295</t>
+  </si>
+  <si>
+    <t>Row 296</t>
+  </si>
+  <si>
+    <t>Row 297</t>
+  </si>
+  <si>
+    <t>Row 298</t>
+  </si>
+  <si>
+    <t>Row 299</t>
+  </si>
+  <si>
+    <t>Row 300</t>
+  </si>
+  <si>
+    <t>Row 301</t>
+  </si>
+  <si>
+    <t>Row 302</t>
+  </si>
+  <si>
+    <t>Row 303</t>
+  </si>
+  <si>
+    <t>Row 304</t>
+  </si>
+  <si>
+    <t>Row 305</t>
+  </si>
+  <si>
+    <t>Row 306</t>
+  </si>
+  <si>
+    <t>Row 307</t>
+  </si>
+  <si>
+    <t>Row 308</t>
+  </si>
+  <si>
+    <t>Row 309</t>
+  </si>
+  <si>
+    <t>Row 310</t>
+  </si>
+  <si>
+    <t>Row 311</t>
+  </si>
+  <si>
+    <t>Row 312</t>
+  </si>
+  <si>
+    <t>Row 313</t>
+  </si>
+  <si>
+    <t>Row 314</t>
+  </si>
+  <si>
+    <t>Row 315</t>
+  </si>
+  <si>
+    <t>Row 316</t>
+  </si>
+  <si>
+    <t>Row 317</t>
+  </si>
+  <si>
+    <t>Row 318</t>
+  </si>
+  <si>
+    <t>Row 319</t>
+  </si>
+  <si>
+    <t>Row 320</t>
+  </si>
+  <si>
+    <t>Row 321</t>
+  </si>
+  <si>
+    <t>Row 322</t>
+  </si>
+  <si>
+    <t>Row 323</t>
+  </si>
+  <si>
+    <t>Row 324</t>
+  </si>
+  <si>
+    <t>Row 325</t>
+  </si>
+  <si>
+    <t>Row 326</t>
+  </si>
+  <si>
+    <t>Row 327</t>
+  </si>
+  <si>
+    <t>Row 328</t>
+  </si>
+  <si>
+    <t>Row 329</t>
+  </si>
+  <si>
+    <t>Row 330</t>
+  </si>
+  <si>
+    <t>Row 331</t>
+  </si>
+  <si>
+    <t>Row 332</t>
+  </si>
+  <si>
+    <t>Row 333</t>
+  </si>
+  <si>
+    <t>Row 334</t>
+  </si>
+  <si>
+    <t>Row 335</t>
+  </si>
+  <si>
+    <t>Row 336</t>
+  </si>
+  <si>
+    <t>Row 337</t>
+  </si>
+  <si>
+    <t>Row 338</t>
+  </si>
+  <si>
+    <t>Row 339</t>
+  </si>
+  <si>
+    <t>Row 340</t>
+  </si>
+  <si>
+    <t>Row 341</t>
+  </si>
+  <si>
+    <t>Row 342</t>
   </si>
 </sst>
 </file>
@@ -17083,10 +17080,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="G342" sqref="G342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -17758,7 +17755,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" ht="270" spans="1:7">
+    <row r="30" ht="75" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -17769,13 +17766,13 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
         <v>392</v>
@@ -17792,7 +17789,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -17804,7 +17801,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="32" ht="75" spans="1:7">
+    <row r="32" ht="409.5" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -17812,13 +17809,13 @@
         <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F32" s="3">
         <v>403</v>
@@ -17835,13 +17832,13 @@
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="3">
         <v>403</v>
@@ -17861,10 +17858,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3">
         <v>403</v>
@@ -17873,7 +17870,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" ht="409.5" spans="1:7">
+    <row r="35" ht="75" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -17884,13 +17881,13 @@
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F35" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G35" t="s">
         <v>392</v>
@@ -17907,7 +17904,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -17919,7 +17916,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" ht="75" spans="1:7">
+    <row r="37" ht="409.5" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -17927,16 +17924,16 @@
         <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F37" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G37" t="s">
         <v>392</v>
@@ -17950,16 +17947,16 @@
         <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G38" t="s">
         <v>392</v>
@@ -17976,10 +17973,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="3">
         <v>400</v>
@@ -17988,7 +17985,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" ht="409.5" spans="1:7">
+    <row r="40" ht="75" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -17999,10 +17996,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F40" s="3">
         <v>400</v>
@@ -18022,7 +18019,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -18034,7 +18031,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" ht="75" spans="1:7">
+    <row r="42" ht="409.5" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -18042,16 +18039,16 @@
         <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F42" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
         <v>392</v>
@@ -18065,13 +18062,13 @@
         <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F43" s="3">
         <v>404</v>
@@ -18091,19 +18088,19 @@
         <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F44" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" ht="409.5" spans="1:7">
+    <row r="45" ht="75" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>157</v>
       </c>
@@ -18113,11 +18110,11 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
+      <c r="D45" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
@@ -18136,8 +18133,8 @@
       <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>88</v>
+      <c r="D46" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -18149,7 +18146,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" ht="75" spans="1:7">
+    <row r="47" ht="225" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
@@ -18157,22 +18154,22 @@
         <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="48" ht="225" spans="1:7">
+    <row r="48" ht="409.5" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -18180,13 +18177,13 @@
         <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" s="3">
         <v>404</v>
@@ -18206,19 +18203,19 @@
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G49" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="50" ht="409.5" spans="1:7">
+    <row r="50" ht="75" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -18229,10 +18226,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F50" s="3">
         <v>400</v>
@@ -18252,7 +18249,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -18264,7 +18261,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" ht="75" spans="1:7">
+    <row r="52" ht="225" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -18272,22 +18269,22 @@
         <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G52" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="53" ht="225" spans="1:7">
+    <row r="53" ht="409.5" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -18295,13 +18292,13 @@
         <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F53" s="3">
         <v>404</v>
@@ -18321,10 +18318,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F54" s="3">
         <v>404</v>
@@ -18333,7 +18330,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" ht="409.5" spans="1:7">
+    <row r="55" ht="75" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>168</v>
       </c>
@@ -18344,13 +18341,13 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F55" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G55" t="s">
         <v>392</v>
@@ -18367,7 +18364,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -18379,7 +18376,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" ht="75" spans="1:7">
+    <row r="57" ht="255" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -18387,22 +18384,22 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G57" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="58" ht="255" spans="1:7">
+    <row r="58" ht="409.5" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -18410,13 +18407,13 @@
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F58" s="3">
         <v>404</v>
@@ -18436,42 +18433,42 @@
         <v>5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G59" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" ht="409.5" spans="1:7">
+    <row r="60" ht="165" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>175</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G60" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="61" ht="165" spans="1:7">
+    <row r="61" ht="390" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>174</v>
       </c>
@@ -18482,10 +18479,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3">
         <v>404</v>
@@ -18494,7 +18491,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="62" ht="390" spans="1:7">
+    <row r="62" ht="90" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>177</v>
       </c>
@@ -18502,22 +18499,22 @@
         <v>175</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G62" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="63" ht="90" spans="1:7">
+    <row r="63" ht="409.5" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>179</v>
       </c>
@@ -18525,22 +18522,22 @@
         <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
+        <v>182</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F63" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G63" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="64" ht="409.5" spans="1:7">
+    <row r="64" ht="90" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>181</v>
       </c>
@@ -18551,19 +18548,19 @@
         <v>5</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>184</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F64" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G64" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="65" ht="90" spans="1:7">
+    <row r="65" ht="409.5" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>183</v>
       </c>
@@ -18571,13 +18568,13 @@
         <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F65" s="3">
         <v>403</v>
@@ -18594,22 +18591,22 @@
         <v>175</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F66" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G66" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="67" ht="409.5" spans="1:7">
+    <row r="67" ht="90" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
@@ -18617,16 +18614,16 @@
         <v>175</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>27</v>
+        <v>190</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F67" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G67" t="s">
         <v>392</v>
@@ -18643,7 +18640,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -18655,7 +18652,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" ht="90" spans="1:7">
+    <row r="69" ht="409.5" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>191</v>
       </c>
@@ -18663,13 +18660,13 @@
         <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F69" s="3">
         <v>403</v>
@@ -18686,13 +18683,13 @@
         <v>175</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" s="3">
         <v>403</v>
@@ -18709,13 +18706,13 @@
         <v>175</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F71" s="3">
         <v>403</v>
@@ -18724,7 +18721,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" ht="409.5" spans="1:7">
+    <row r="72" ht="90" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>197</v>
       </c>
@@ -18732,13 +18729,13 @@
         <v>175</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>200</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F72" s="3">
         <v>403</v>
@@ -18758,7 +18755,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -18770,7 +18767,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="74" ht="90" spans="1:7">
+    <row r="74" ht="409.5" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -18778,13 +18775,13 @@
         <v>175</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>13</v>
+        <v>204</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F74" s="3">
         <v>403</v>
@@ -18801,13 +18798,13 @@
         <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F75" s="3">
         <v>403</v>
@@ -18816,7 +18813,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="76" ht="409.5" spans="1:7">
+    <row r="76" ht="240" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>205</v>
       </c>
@@ -18824,13 +18821,13 @@
         <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F76" s="3">
         <v>403</v>
@@ -18839,7 +18836,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" ht="240" spans="1:7">
+    <row r="77" ht="90" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
@@ -18847,13 +18844,13 @@
         <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>210</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F77" s="3">
         <v>403</v>
@@ -18873,7 +18870,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -18885,7 +18882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" ht="90" spans="1:7">
+    <row r="79" ht="409.5" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>211</v>
       </c>
@@ -18893,13 +18890,13 @@
         <v>175</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
+        <v>214</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F79" s="3">
         <v>403</v>
@@ -18916,13 +18913,13 @@
         <v>175</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80" s="3">
         <v>403</v>
@@ -18931,7 +18928,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" ht="409.5" spans="1:7">
+    <row r="81" ht="240" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>215</v>
       </c>
@@ -18939,13 +18936,13 @@
         <v>175</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F81" s="3">
         <v>403</v>
@@ -18954,7 +18951,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" ht="240" spans="1:7">
+    <row r="82" ht="90" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
@@ -18962,13 +18959,13 @@
         <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>45</v>
+        <v>220</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F82" s="3">
         <v>403</v>
@@ -18988,7 +18985,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -19000,7 +18997,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="84" ht="90" spans="1:7">
+    <row r="84" ht="409.5" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>221</v>
       </c>
@@ -19008,13 +19005,13 @@
         <v>175</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>13</v>
+        <v>224</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F84" s="3">
         <v>403</v>
@@ -19031,13 +19028,13 @@
         <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="F85" s="3">
         <v>403</v>
@@ -19054,13 +19051,13 @@
         <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F86" s="3">
         <v>403</v>
@@ -19077,13 +19074,13 @@
         <v>175</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F87" s="3">
         <v>403</v>
@@ -19092,7 +19089,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" ht="409.5" spans="1:7">
+    <row r="88" ht="270" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>229</v>
       </c>
@@ -19103,10 +19100,10 @@
         <v>18</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F88" s="3">
         <v>403</v>
@@ -19115,7 +19112,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" ht="270" spans="1:7">
+    <row r="89" ht="90" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>231</v>
       </c>
@@ -19123,13 +19120,13 @@
         <v>175</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>65</v>
+        <v>234</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F89" s="3">
         <v>403</v>
@@ -19149,7 +19146,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
@@ -19161,7 +19158,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" ht="90" spans="1:7">
+    <row r="91" ht="409.5" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -19169,13 +19166,13 @@
         <v>175</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>13</v>
+        <v>238</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F91" s="3">
         <v>403</v>
@@ -19192,13 +19189,13 @@
         <v>175</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F92" s="3">
         <v>403</v>
@@ -19215,13 +19212,13 @@
         <v>175</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F93" s="3">
         <v>403</v>
@@ -19230,7 +19227,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" ht="409.5" spans="1:7">
+    <row r="94" ht="90" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>241</v>
       </c>
@@ -19238,13 +19235,13 @@
         <v>175</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>73</v>
+        <v>244</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F94" s="3">
         <v>403</v>
@@ -19264,7 +19261,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
@@ -19276,7 +19273,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="96" ht="90" spans="1:7">
+    <row r="96" ht="409.5" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -19284,13 +19281,13 @@
         <v>175</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>13</v>
+        <v>248</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F96" s="3">
         <v>403</v>
@@ -19307,13 +19304,13 @@
         <v>175</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F97" s="3">
         <v>403</v>
@@ -19330,22 +19327,22 @@
         <v>175</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F98" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G98" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="99" ht="409.5" spans="1:7">
+    <row r="99" ht="90" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>251</v>
       </c>
@@ -19353,16 +19350,16 @@
         <v>175</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>81</v>
+        <v>254</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F99" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G99" t="s">
         <v>392</v>
@@ -19379,7 +19376,7 @@
         <v>11</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>13</v>
@@ -19391,7 +19388,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="101" ht="90" spans="1:7">
+    <row r="101" ht="409.5" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>255</v>
       </c>
@@ -19399,16 +19396,16 @@
         <v>175</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>13</v>
+        <v>258</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F101" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G101" t="s">
         <v>392</v>
@@ -19422,13 +19419,13 @@
         <v>175</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F102" s="3">
         <v>404</v>
@@ -19445,13 +19442,13 @@
         <v>175</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F103" s="3">
         <v>404</v>
@@ -19460,7 +19457,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="104" ht="409.5" spans="1:7">
+    <row r="104" ht="90" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>261</v>
       </c>
@@ -19468,16 +19465,16 @@
         <v>175</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F104" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G104" t="s">
         <v>392</v>
@@ -19493,8 +19490,8 @@
       <c r="C105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>264</v>
+      <c r="D105" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>13</v>
@@ -19506,7 +19503,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="106" ht="90" spans="1:7">
+    <row r="106" ht="225" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>265</v>
       </c>
@@ -19514,13 +19511,13 @@
         <v>175</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>13</v>
+        <v>268</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F106" s="3">
         <v>403</v>
@@ -19529,7 +19526,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="107" ht="225" spans="1:7">
+    <row r="107" ht="409.5" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>267</v>
       </c>
@@ -19537,16 +19534,16 @@
         <v>175</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F107" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G107" t="s">
         <v>392</v>
@@ -19560,22 +19557,22 @@
         <v>175</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F108" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G108" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="109" ht="409.5" spans="1:7">
+    <row r="109" ht="90" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>271</v>
       </c>
@@ -19583,13 +19580,13 @@
         <v>175</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>95</v>
+        <v>274</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F109" s="3">
         <v>403</v>
@@ -19609,7 +19606,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>13</v>
@@ -19621,7 +19618,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="111" ht="90" spans="1:7">
+    <row r="111" ht="225" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>275</v>
       </c>
@@ -19629,22 +19626,22 @@
         <v>175</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>13</v>
+        <v>278</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F111" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G111" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="112" ht="225" spans="1:7">
+    <row r="112" ht="409.5" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>277</v>
       </c>
@@ -19652,16 +19649,16 @@
         <v>175</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F112" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G112" t="s">
         <v>392</v>
@@ -19675,13 +19672,13 @@
         <v>175</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F113" s="3">
         <v>403</v>
@@ -19690,7 +19687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" ht="409.5" spans="1:7">
+    <row r="114" ht="90" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>281</v>
       </c>
@@ -19698,13 +19695,13 @@
         <v>175</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>102</v>
+        <v>284</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F114" s="3">
         <v>403</v>
@@ -19724,7 +19721,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>13</v>
@@ -19736,7 +19733,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" ht="90" spans="1:7">
+    <row r="116" ht="255" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>285</v>
       </c>
@@ -19744,22 +19741,22 @@
         <v>175</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>13</v>
+        <v>288</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F116" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G116" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="117" ht="255" spans="1:7">
+    <row r="117" ht="409.5" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>287</v>
       </c>
@@ -19767,13 +19764,13 @@
         <v>175</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F117" s="3">
         <v>404</v>
@@ -19790,13 +19787,13 @@
         <v>175</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F118" s="3">
         <v>404</v>
@@ -19805,30 +19802,30 @@
         <v>392</v>
       </c>
     </row>
-    <row r="119" ht="409.5" spans="1:7">
+    <row r="119" ht="105" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="F119" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G119" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="120" ht="105" spans="1:7">
+    <row r="120" ht="315" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>293</v>
       </c>
@@ -19839,10 +19836,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F120" s="3">
         <v>400</v>
@@ -19851,7 +19848,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" ht="315" spans="1:7">
+    <row r="121" ht="75" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>296</v>
       </c>
@@ -19859,13 +19856,13 @@
         <v>294</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>297</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F121" s="3">
         <v>400</v>
@@ -19874,7 +19871,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" ht="75" spans="1:7">
+    <row r="122" ht="375" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>298</v>
       </c>
@@ -19882,13 +19879,13 @@
         <v>294</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F122" s="3">
         <v>400</v>
@@ -19897,7 +19894,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" ht="375" spans="1:7">
+    <row r="123" ht="75" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>299</v>
       </c>
@@ -19908,10 +19905,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>300</v>
+        <v>16</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F123" s="3">
         <v>400</v>
@@ -19920,7 +19917,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="124" ht="75" spans="1:7">
+    <row r="124" ht="409.5" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>301</v>
       </c>
@@ -19928,13 +19925,13 @@
         <v>294</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="F124" s="3">
         <v>400</v>
@@ -19943,7 +19940,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="125" ht="409.5" spans="1:7">
+    <row r="125" ht="270" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>302</v>
       </c>
@@ -19951,13 +19948,13 @@
         <v>294</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F125" s="3">
         <v>400</v>
@@ -19966,7 +19963,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" ht="270" spans="1:7">
+    <row r="126" ht="75" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>304</v>
       </c>
@@ -19974,13 +19971,13 @@
         <v>294</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>305</v>
+        <v>28</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F126" s="3">
         <v>400</v>
@@ -20000,7 +19997,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>13</v>
@@ -20012,7 +20009,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="128" ht="75" spans="1:7">
+    <row r="128" ht="409.5" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>307</v>
       </c>
@@ -20020,13 +20017,13 @@
         <v>294</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="F128" s="3">
         <v>400</v>
@@ -20043,13 +20040,13 @@
         <v>294</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F129" s="3">
         <v>400</v>
@@ -20066,13 +20063,13 @@
         <v>294</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F130" s="3">
         <v>400</v>
@@ -20081,7 +20078,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" ht="409.5" spans="1:7">
+    <row r="131" ht="75" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>312</v>
       </c>
@@ -20089,13 +20086,13 @@
         <v>294</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>313</v>
+        <v>36</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F131" s="3">
         <v>400</v>
@@ -20115,7 +20112,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>13</v>
@@ -20127,7 +20124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="133" ht="75" spans="1:7">
+    <row r="133" ht="345" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>315</v>
       </c>
@@ -20135,13 +20132,13 @@
         <v>294</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="F133" s="3">
         <v>400</v>
@@ -20150,7 +20147,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="134" ht="345" spans="1:7">
+    <row r="134" ht="409.5" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>316</v>
       </c>
@@ -20158,13 +20155,13 @@
         <v>294</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F134" s="3">
         <v>400</v>
@@ -20173,7 +20170,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" ht="409.5" spans="1:7">
+    <row r="135" ht="270" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>318</v>
       </c>
@@ -20181,13 +20178,13 @@
         <v>294</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F135" s="3">
         <v>400</v>
@@ -20196,7 +20193,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" ht="270" spans="1:7">
+    <row r="136" ht="75" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>320</v>
       </c>
@@ -20204,13 +20201,13 @@
         <v>294</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>321</v>
+        <v>46</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F136" s="3">
         <v>400</v>
@@ -20230,7 +20227,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>13</v>
@@ -20242,7 +20239,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" ht="75" spans="1:7">
+    <row r="138" ht="409.5" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>323</v>
       </c>
@@ -20250,13 +20247,13 @@
         <v>294</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="F138" s="3">
         <v>400</v>
@@ -20273,13 +20270,13 @@
         <v>294</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F139" s="3">
         <v>400</v>
@@ -20288,7 +20285,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="140" ht="409.5" spans="1:7">
+    <row r="140" ht="255" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>326</v>
       </c>
@@ -20296,13 +20293,13 @@
         <v>294</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F140" s="3">
         <v>400</v>
@@ -20311,7 +20308,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="141" ht="255" spans="1:7">
+    <row r="141" ht="75" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>328</v>
       </c>
@@ -20319,13 +20316,13 @@
         <v>294</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>329</v>
+        <v>54</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F141" s="3">
         <v>400</v>
@@ -20345,7 +20342,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>13</v>
@@ -20357,7 +20354,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" ht="75" spans="1:7">
+    <row r="143" ht="409.5" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>331</v>
       </c>
@@ -20365,13 +20362,13 @@
         <v>294</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="F143" s="3">
         <v>400</v>
@@ -20388,13 +20385,13 @@
         <v>294</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F144" s="3">
         <v>400</v>
@@ -20403,7 +20400,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="145" ht="409.5" spans="1:7">
+    <row r="145" ht="360" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>334</v>
       </c>
@@ -20411,13 +20408,13 @@
         <v>294</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F145" s="3">
         <v>400</v>
@@ -20426,7 +20423,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" ht="360" spans="1:7">
+    <row r="146" ht="409.5" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
@@ -20434,22 +20431,22 @@
         <v>294</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F146" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G146" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="147" ht="409.5" spans="1:7">
+    <row r="147" ht="75" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>338</v>
       </c>
@@ -20457,22 +20454,22 @@
         <v>294</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>339</v>
+        <v>668</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F147" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G147" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="148" ht="135" spans="1:7">
+    <row r="148" ht="75" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>340</v>
       </c>
@@ -20480,22 +20477,22 @@
         <v>294</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>341</v>
+        <v>669</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F148" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G148" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="149" ht="75" spans="1:7">
+    <row r="149" ht="330" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>342</v>
       </c>
@@ -20503,22 +20500,22 @@
         <v>294</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="F149" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G149" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="150" ht="75" spans="1:7">
+    <row r="150" ht="409.5" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>343</v>
       </c>
@@ -20526,22 +20523,22 @@
         <v>294</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F150" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G150" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="151" ht="330" spans="1:7">
+    <row r="151" ht="285" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>344</v>
       </c>
@@ -20549,13 +20546,13 @@
         <v>294</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F151" s="3">
         <v>403</v>
@@ -20564,7 +20561,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="152" ht="409.5" spans="1:7">
+    <row r="152" ht="75" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>346</v>
       </c>
@@ -20572,22 +20569,22 @@
         <v>294</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>347</v>
+        <v>74</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F152" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G152" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="153" ht="285" spans="1:7">
+    <row r="153" ht="75" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>348</v>
       </c>
@@ -20595,22 +20592,22 @@
         <v>294</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>349</v>
+        <v>75</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F153" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G153" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="154" ht="75" spans="1:7">
+    <row r="154" ht="409.5" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>350</v>
       </c>
@@ -20618,13 +20615,13 @@
         <v>294</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="F154" s="3">
         <v>400</v>
@@ -20633,7 +20630,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="155" ht="75" spans="1:7">
+    <row r="155" ht="409.5" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>351</v>
       </c>
@@ -20641,13 +20638,13 @@
         <v>294</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="F155" s="3">
         <v>400</v>
@@ -20656,7 +20653,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="156" ht="409.5" spans="1:7">
+    <row r="156" ht="135" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>352</v>
       </c>
@@ -20664,13 +20661,13 @@
         <v>294</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F156" s="3">
         <v>400</v>
@@ -20679,7 +20676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="157" ht="409.5" spans="1:7">
+    <row r="157" ht="75" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>354</v>
       </c>
@@ -20687,13 +20684,13 @@
         <v>294</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>355</v>
+        <v>82</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F157" s="3">
         <v>400</v>
@@ -20702,7 +20699,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="158" ht="135" spans="1:7">
+    <row r="158" ht="75" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>356</v>
       </c>
@@ -20710,13 +20707,13 @@
         <v>294</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>357</v>
+        <v>83</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F158" s="3">
         <v>400</v>
@@ -20725,7 +20722,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" ht="75" spans="1:7">
+    <row r="159" ht="409.5" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>358</v>
       </c>
@@ -20733,13 +20730,13 @@
         <v>294</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="F159" s="3">
         <v>400</v>
@@ -20748,7 +20745,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="160" ht="75" spans="1:7">
+    <row r="160" ht="409.5" spans="1:7">
       <c r="A160" s="1" t="s">
         <v>359</v>
       </c>
@@ -20756,13 +20753,13 @@
         <v>294</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="F160" s="3">
         <v>400</v>
@@ -20771,7 +20768,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" ht="409.5" spans="1:7">
+    <row r="161" ht="255" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>360</v>
       </c>
@@ -20779,13 +20776,13 @@
         <v>294</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F161" s="3">
         <v>400</v>
@@ -20794,7 +20791,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="162" ht="409.5" spans="1:7">
+    <row r="162" ht="75" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>362</v>
       </c>
@@ -20802,13 +20799,13 @@
         <v>294</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>363</v>
+        <v>11</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F162" s="3">
         <v>400</v>
@@ -20817,7 +20814,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" ht="255" spans="1:7">
+    <row r="163" ht="75" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>364</v>
       </c>
@@ -20825,13 +20822,13 @@
         <v>294</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>365</v>
+        <v>89</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F163" s="3">
         <v>400</v>
@@ -20840,7 +20837,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="164" ht="75" spans="1:7">
+    <row r="164" ht="105" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>366</v>
       </c>
@@ -20848,22 +20845,22 @@
         <v>294</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="F164" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G164" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="165" ht="75" spans="1:7">
+    <row r="165" ht="255" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>367</v>
       </c>
@@ -20871,13 +20868,13 @@
         <v>294</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="F165" s="3">
         <v>400</v>
@@ -20886,7 +20883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" ht="105" spans="1:7">
+    <row r="166" ht="240" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>368</v>
       </c>
@@ -20894,22 +20891,22 @@
         <v>294</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F166" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G166" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="167" ht="255" spans="1:7">
+    <row r="167" ht="75" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>370</v>
       </c>
@@ -20917,13 +20914,13 @@
         <v>294</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>371</v>
+        <v>96</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F167" s="3">
         <v>400</v>
@@ -20932,7 +20929,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="168" ht="240" spans="1:7">
+    <row r="168" ht="75" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>372</v>
       </c>
@@ -20940,13 +20937,13 @@
         <v>294</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>373</v>
+        <v>97</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F168" s="3">
         <v>400</v>
@@ -20955,7 +20952,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="169" ht="75" spans="1:7">
+    <row r="169" ht="150" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>374</v>
       </c>
@@ -20963,13 +20960,13 @@
         <v>294</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>13</v>
+        <v>166</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="F169" s="3">
         <v>400</v>
@@ -20978,7 +20975,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="170" ht="75" spans="1:7">
+    <row r="170" ht="409.5" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>375</v>
       </c>
@@ -20986,13 +20983,13 @@
         <v>294</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="F170" s="3">
         <v>400</v>
@@ -21001,7 +20998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="171" ht="150" spans="1:7">
+    <row r="171" ht="225" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>376</v>
       </c>
@@ -21009,13 +21006,13 @@
         <v>294</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F171" s="3">
         <v>400</v>
@@ -21024,7 +21021,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" ht="409.5" spans="1:7">
+    <row r="172" ht="75" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>378</v>
       </c>
@@ -21032,13 +21029,13 @@
         <v>294</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>379</v>
+        <v>103</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F172" s="3">
         <v>400</v>
@@ -21047,7 +21044,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" ht="225" spans="1:7">
+    <row r="173" ht="75" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>380</v>
       </c>
@@ -21055,13 +21052,13 @@
         <v>294</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>381</v>
+        <v>104</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F173" s="3">
         <v>400</v>
@@ -21070,7 +21067,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="174" ht="75" spans="1:7">
+    <row r="174" ht="105" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>382</v>
       </c>
@@ -21078,13 +21075,13 @@
         <v>294</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>13</v>
+        <v>105</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F174" s="3">
         <v>400</v>
@@ -21093,7 +21090,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" ht="75" spans="1:7">
+    <row r="175" ht="225" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>383</v>
       </c>
@@ -21101,13 +21098,13 @@
         <v>294</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F175" s="3">
         <v>400</v>
@@ -21116,7 +21113,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="176" ht="105" spans="1:7">
+    <row r="176" ht="210" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>384</v>
       </c>
@@ -21124,13 +21121,13 @@
         <v>294</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F176" s="3">
         <v>400</v>
@@ -21139,21 +21136,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="177" ht="225" spans="1:7">
+    <row r="177" ht="60" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F177" s="3">
         <v>400</v>
@@ -21162,24 +21159,24 @@
         <v>392</v>
       </c>
     </row>
-    <row r="178" ht="210" spans="1:7">
+    <row r="178" ht="60" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F178" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G178" t="s">
         <v>392</v>
@@ -21193,10 +21190,10 @@
         <v>391</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>392</v>
@@ -21219,13 +21216,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F180" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G180" t="s">
         <v>392</v>
@@ -21239,16 +21236,16 @@
         <v>391</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F181" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G181" t="s">
         <v>392</v>
@@ -21262,10 +21259,10 @@
         <v>391</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>392</v>
@@ -21285,16 +21282,16 @@
         <v>391</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F183" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G183" t="s">
         <v>392</v>
@@ -21308,10 +21305,10 @@
         <v>391</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>392</v>
@@ -21331,10 +21328,10 @@
         <v>391</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>392</v>
@@ -21354,10 +21351,10 @@
         <v>391</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>392</v>
@@ -21377,10 +21374,10 @@
         <v>391</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>392</v>
@@ -21400,10 +21397,10 @@
         <v>391</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>392</v>
@@ -21423,10 +21420,10 @@
         <v>391</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>392</v>
@@ -21446,10 +21443,10 @@
         <v>391</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>392</v>
@@ -21469,10 +21466,10 @@
         <v>391</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>392</v>
@@ -21492,10 +21489,10 @@
         <v>391</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>392</v>
@@ -21515,10 +21512,10 @@
         <v>391</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>392</v>
@@ -21538,10 +21535,10 @@
         <v>391</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>392</v>
@@ -21561,10 +21558,10 @@
         <v>391</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>392</v>
@@ -21584,10 +21581,10 @@
         <v>391</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>392</v>
@@ -21607,10 +21604,10 @@
         <v>391</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>392</v>
@@ -21630,10 +21627,10 @@
         <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>392</v>
@@ -21653,10 +21650,10 @@
         <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>392</v>
@@ -21676,10 +21673,10 @@
         <v>391</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>392</v>
@@ -21699,10 +21696,10 @@
         <v>391</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>392</v>
@@ -21722,10 +21719,10 @@
         <v>391</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>392</v>
@@ -21745,10 +21742,10 @@
         <v>391</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>392</v>
@@ -21771,13 +21768,13 @@
         <v>18</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F204" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G204" t="s">
         <v>392</v>
@@ -21791,10 +21788,10 @@
         <v>391</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>392</v>
@@ -21814,16 +21811,16 @@
         <v>391</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F206" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="s">
         <v>392</v>
@@ -21837,16 +21834,16 @@
         <v>391</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F207" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G207" t="s">
         <v>392</v>
@@ -21860,16 +21857,16 @@
         <v>391</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F208" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G208" t="s">
         <v>392</v>
@@ -21883,16 +21880,16 @@
         <v>391</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F209" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G209" t="s">
         <v>392</v>
@@ -21906,16 +21903,16 @@
         <v>391</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F210" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G210" t="s">
         <v>392</v>
@@ -21929,16 +21926,16 @@
         <v>391</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F211" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G211" t="s">
         <v>392</v>
@@ -21952,16 +21949,16 @@
         <v>391</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F212" s="3">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G212" t="s">
         <v>392</v>
@@ -21975,10 +21972,10 @@
         <v>391</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>392</v>
@@ -21998,10 +21995,10 @@
         <v>391</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>392</v>
@@ -22021,10 +22018,10 @@
         <v>391</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>392</v>
@@ -22044,10 +22041,10 @@
         <v>391</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>392</v>
@@ -22067,10 +22064,10 @@
         <v>391</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>392</v>
@@ -22090,10 +22087,10 @@
         <v>391</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>392</v>
@@ -22113,10 +22110,10 @@
         <v>391</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>392</v>
@@ -22136,10 +22133,10 @@
         <v>391</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>392</v>
@@ -22159,10 +22156,10 @@
         <v>391</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>392</v>
@@ -22182,10 +22179,10 @@
         <v>391</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>392</v>
@@ -22205,10 +22202,10 @@
         <v>391</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>392</v>
@@ -22228,10 +22225,10 @@
         <v>391</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>392</v>
@@ -22251,10 +22248,10 @@
         <v>391</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>392</v>
@@ -22274,10 +22271,10 @@
         <v>391</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>392</v>
@@ -22297,10 +22294,10 @@
         <v>391</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>392</v>
@@ -22320,10 +22317,10 @@
         <v>391</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>392</v>
@@ -22343,10 +22340,10 @@
         <v>391</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>392</v>
@@ -22366,10 +22363,10 @@
         <v>391</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>392</v>
@@ -22389,10 +22386,10 @@
         <v>391</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>392</v>
@@ -22412,10 +22409,10 @@
         <v>391</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>392</v>
@@ -22435,10 +22432,10 @@
         <v>391</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>392</v>
@@ -22458,10 +22455,10 @@
         <v>391</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>392</v>
@@ -22473,21 +22470,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" ht="60" spans="1:7">
+    <row r="235" ht="409.5" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>392</v>
+      <c r="B235" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="F235" s="3">
         <v>400</v>
@@ -22496,21 +22493,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" ht="60" spans="1:7">
+    <row r="236" ht="409.5" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>392</v>
+      <c r="B236" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="F236" s="3">
         <v>400</v>
@@ -22519,21 +22516,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" ht="60" spans="1:7">
+    <row r="237" ht="409.5" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>392</v>
+      <c r="B237" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="F237" s="3">
         <v>400</v>
@@ -22544,10 +22541,10 @@
     </row>
     <row r="238" ht="409.5" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -22556,7 +22553,7 @@
         <v>49</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F238" s="3">
         <v>400</v>
@@ -22566,11 +22563,11 @@
       </c>
     </row>
     <row r="239" ht="409.5" spans="1:7">
-      <c r="A239" t="s">
-        <v>669</v>
+      <c r="A239" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -22579,7 +22576,7 @@
         <v>49</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F239" s="3">
         <v>400</v>
@@ -22589,11 +22586,11 @@
       </c>
     </row>
     <row r="240" ht="409.5" spans="1:7">
-      <c r="A240" t="s">
-        <v>670</v>
+      <c r="A240" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -22602,7 +22599,7 @@
         <v>49</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F240" s="3">
         <v>400</v>
@@ -22612,11 +22609,11 @@
       </c>
     </row>
     <row r="241" ht="409.5" spans="1:7">
-      <c r="A241" t="s">
-        <v>671</v>
+      <c r="A241" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -22625,7 +22622,7 @@
         <v>49</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F241" s="3">
         <v>400</v>
@@ -22635,11 +22632,11 @@
       </c>
     </row>
     <row r="242" ht="409.5" spans="1:7">
-      <c r="A242" t="s">
-        <v>672</v>
+      <c r="A242" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -22648,7 +22645,7 @@
         <v>49</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F242" s="3">
         <v>400</v>
@@ -22658,11 +22655,11 @@
       </c>
     </row>
     <row r="243" ht="409.5" spans="1:7">
-      <c r="A243" t="s">
-        <v>673</v>
+      <c r="A243" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -22671,7 +22668,7 @@
         <v>49</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F243" s="3">
         <v>400</v>
@@ -22681,11 +22678,11 @@
       </c>
     </row>
     <row r="244" ht="409.5" spans="1:7">
-      <c r="A244" t="s">
-        <v>674</v>
+      <c r="A244" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -22694,7 +22691,7 @@
         <v>49</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F244" s="3">
         <v>400</v>
@@ -22704,11 +22701,11 @@
       </c>
     </row>
     <row r="245" ht="409.5" spans="1:7">
-      <c r="A245" t="s">
-        <v>675</v>
+      <c r="A245" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -22717,7 +22714,7 @@
         <v>49</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F245" s="3">
         <v>400</v>
@@ -22727,11 +22724,11 @@
       </c>
     </row>
     <row r="246" ht="409.5" spans="1:7">
-      <c r="A246" t="s">
-        <v>676</v>
+      <c r="A246" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -22740,7 +22737,7 @@
         <v>49</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F246" s="3">
         <v>400</v>
@@ -22750,11 +22747,11 @@
       </c>
     </row>
     <row r="247" ht="409.5" spans="1:7">
-      <c r="A247" t="s">
-        <v>677</v>
+      <c r="A247" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -22763,7 +22760,7 @@
         <v>49</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F247" s="3">
         <v>400</v>
@@ -22773,11 +22770,11 @@
       </c>
     </row>
     <row r="248" ht="409.5" spans="1:7">
-      <c r="A248" t="s">
-        <v>678</v>
+      <c r="A248" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -22786,7 +22783,7 @@
         <v>49</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F248" s="3">
         <v>400</v>
@@ -22796,11 +22793,11 @@
       </c>
     </row>
     <row r="249" ht="409.5" spans="1:7">
-      <c r="A249" t="s">
-        <v>679</v>
+      <c r="A249" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -22809,7 +22806,7 @@
         <v>49</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F249" s="3">
         <v>400</v>
@@ -22819,11 +22816,11 @@
       </c>
     </row>
     <row r="250" ht="409.5" spans="1:7">
-      <c r="A250" t="s">
-        <v>680</v>
+      <c r="A250" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -22832,7 +22829,7 @@
         <v>49</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F250" s="3">
         <v>400</v>
@@ -22842,20 +22839,20 @@
       </c>
     </row>
     <row r="251" ht="409.5" spans="1:7">
-      <c r="A251" t="s">
-        <v>681</v>
+      <c r="A251" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F251" s="3">
         <v>400</v>
@@ -22865,20 +22862,20 @@
       </c>
     </row>
     <row r="252" ht="409.5" spans="1:7">
-      <c r="A252" t="s">
-        <v>682</v>
+      <c r="A252" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F252" s="3">
         <v>400</v>
@@ -22888,20 +22885,20 @@
       </c>
     </row>
     <row r="253" ht="409.5" spans="1:7">
-      <c r="A253" t="s">
-        <v>683</v>
+      <c r="A253" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F253" s="3">
         <v>400</v>
@@ -22911,11 +22908,11 @@
       </c>
     </row>
     <row r="254" ht="409.5" spans="1:7">
-      <c r="A254" t="s">
-        <v>684</v>
+      <c r="A254" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -22924,7 +22921,7 @@
         <v>76</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F254" s="3">
         <v>400</v>
@@ -22934,11 +22931,11 @@
       </c>
     </row>
     <row r="255" ht="409.5" spans="1:7">
-      <c r="A255" t="s">
-        <v>685</v>
+      <c r="A255" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -22947,7 +22944,7 @@
         <v>76</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F255" s="3">
         <v>400</v>
@@ -22957,11 +22954,11 @@
       </c>
     </row>
     <row r="256" ht="409.5" spans="1:7">
-      <c r="A256" t="s">
-        <v>686</v>
+      <c r="A256" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -22970,7 +22967,7 @@
         <v>76</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F256" s="3">
         <v>400</v>
@@ -22980,11 +22977,11 @@
       </c>
     </row>
     <row r="257" ht="409.5" spans="1:7">
-      <c r="A257" t="s">
-        <v>687</v>
+      <c r="A257" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -22993,7 +22990,7 @@
         <v>76</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F257" s="3">
         <v>400</v>
@@ -23003,11 +23000,11 @@
       </c>
     </row>
     <row r="258" ht="409.5" spans="1:7">
-      <c r="A258" t="s">
-        <v>688</v>
+      <c r="A258" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -23016,7 +23013,7 @@
         <v>76</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F258" s="3">
         <v>400</v>
@@ -23026,11 +23023,11 @@
       </c>
     </row>
     <row r="259" ht="409.5" spans="1:7">
-      <c r="A259" t="s">
-        <v>689</v>
+      <c r="A259" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -23039,7 +23036,7 @@
         <v>76</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F259" s="3">
         <v>400</v>
@@ -23049,11 +23046,11 @@
       </c>
     </row>
     <row r="260" ht="409.5" spans="1:7">
-      <c r="A260" t="s">
-        <v>690</v>
+      <c r="A260" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -23062,7 +23059,7 @@
         <v>76</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F260" s="3">
         <v>400</v>
@@ -23072,20 +23069,20 @@
       </c>
     </row>
     <row r="261" ht="409.5" spans="1:7">
-      <c r="A261" t="s">
-        <v>691</v>
+      <c r="A261" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F261" s="3">
         <v>400</v>
@@ -23095,20 +23092,20 @@
       </c>
     </row>
     <row r="262" ht="409.5" spans="1:7">
-      <c r="A262" t="s">
-        <v>692</v>
+      <c r="A262" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F262" s="3">
         <v>400</v>
@@ -23118,20 +23115,20 @@
       </c>
     </row>
     <row r="263" ht="409.5" spans="1:7">
-      <c r="A263" t="s">
-        <v>693</v>
+      <c r="A263" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F263" s="3">
         <v>400</v>
@@ -23141,80 +23138,80 @@
       </c>
     </row>
     <row r="264" ht="409.5" spans="1:7">
-      <c r="A264" t="s">
-        <v>694</v>
+      <c r="A264" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F264" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G264" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="265" ht="409.5" spans="1:7">
-      <c r="A265" t="s">
-        <v>695</v>
+      <c r="A265" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F265" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G265" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="266" ht="409.5" spans="1:7">
-      <c r="A266" t="s">
-        <v>696</v>
+      <c r="A266" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F266" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G266" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="267" ht="409.5" spans="1:7">
-      <c r="A267" t="s">
-        <v>697</v>
+      <c r="A267" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -23223,21 +23220,21 @@
         <v>98</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F267" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G267" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="268" ht="409.5" spans="1:7">
-      <c r="A268" t="s">
-        <v>698</v>
+      <c r="A268" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -23246,7 +23243,7 @@
         <v>98</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F268" s="3">
         <v>200</v>
@@ -23256,11 +23253,11 @@
       </c>
     </row>
     <row r="269" ht="409.5" spans="1:7">
-      <c r="A269" t="s">
-        <v>699</v>
+      <c r="A269" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -23269,7 +23266,7 @@
         <v>98</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F269" s="3">
         <v>200</v>
@@ -23279,11 +23276,11 @@
       </c>
     </row>
     <row r="270" ht="409.5" spans="1:7">
-      <c r="A270" t="s">
-        <v>700</v>
+      <c r="A270" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -23292,21 +23289,21 @@
         <v>98</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F270" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G270" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="271" ht="409.5" spans="1:7">
-      <c r="A271" t="s">
-        <v>701</v>
+      <c r="A271" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -23315,21 +23312,21 @@
         <v>98</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F271" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G271" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="272" ht="409.5" spans="1:7">
-      <c r="A272" t="s">
-        <v>702</v>
+      <c r="A272" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -23338,21 +23335,21 @@
         <v>98</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F272" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G272" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="273" ht="409.5" spans="1:7">
-      <c r="A273" t="s">
-        <v>703</v>
+      <c r="A273" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -23361,7 +23358,7 @@
         <v>98</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F273" s="3">
         <v>200</v>
@@ -23371,11 +23368,11 @@
       </c>
     </row>
     <row r="274" ht="409.5" spans="1:7">
-      <c r="A274" t="s">
-        <v>704</v>
+      <c r="A274" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -23384,30 +23381,30 @@
         <v>98</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F274" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G274" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="275" ht="409.5" spans="1:7">
-      <c r="A275" t="s">
-        <v>705</v>
+      <c r="A275" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F275" s="3">
         <v>400</v>
@@ -23417,57 +23414,57 @@
       </c>
     </row>
     <row r="276" ht="409.5" spans="1:7">
-      <c r="A276" t="s">
-        <v>706</v>
+      <c r="A276" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F276" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G276" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="277" ht="409.5" spans="1:7">
-      <c r="A277" t="s">
-        <v>707</v>
+      <c r="A277" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F277" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G277" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="278" ht="409.5" spans="1:7">
-      <c r="A278" t="s">
-        <v>708</v>
+      <c r="A278" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -23476,7 +23473,7 @@
         <v>23</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F278" s="3">
         <v>400</v>
@@ -23486,11 +23483,11 @@
       </c>
     </row>
     <row r="279" ht="409.5" spans="1:7">
-      <c r="A279" t="s">
-        <v>709</v>
+      <c r="A279" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -23499,7 +23496,7 @@
         <v>23</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F279" s="3">
         <v>400</v>
@@ -23509,11 +23506,11 @@
       </c>
     </row>
     <row r="280" ht="409.5" spans="1:7">
-      <c r="A280" t="s">
-        <v>710</v>
+      <c r="A280" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -23522,7 +23519,7 @@
         <v>23</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F280" s="3">
         <v>400</v>
@@ -23532,11 +23529,11 @@
       </c>
     </row>
     <row r="281" ht="409.5" spans="1:7">
-      <c r="A281" t="s">
-        <v>711</v>
+      <c r="A281" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -23545,7 +23542,7 @@
         <v>23</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F281" s="3">
         <v>400</v>
@@ -23555,11 +23552,11 @@
       </c>
     </row>
     <row r="282" ht="409.5" spans="1:7">
-      <c r="A282" t="s">
-        <v>712</v>
+      <c r="A282" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -23568,7 +23565,7 @@
         <v>23</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F282" s="3">
         <v>400</v>
@@ -23578,11 +23575,11 @@
       </c>
     </row>
     <row r="283" ht="409.5" spans="1:7">
-      <c r="A283" t="s">
-        <v>713</v>
+      <c r="A283" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -23591,7 +23588,7 @@
         <v>23</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F283" s="3">
         <v>400</v>
@@ -23600,21 +23597,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="284" ht="409.5" spans="1:7">
-      <c r="A284" t="s">
-        <v>714</v>
+    <row r="284" ht="210" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F284" s="3">
         <v>400</v>
@@ -23623,21 +23620,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="285" ht="409.5" spans="1:7">
-      <c r="A285" t="s">
-        <v>715</v>
+    <row r="285" ht="240" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F285" s="3">
         <v>400</v>
@@ -23647,20 +23644,20 @@
       </c>
     </row>
     <row r="286" ht="409.5" spans="1:7">
-      <c r="A286" t="s">
-        <v>716</v>
+      <c r="A286" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="F286" s="3">
         <v>400</v>
@@ -23669,21 +23666,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="287" ht="210" spans="1:7">
-      <c r="A287" t="s">
-        <v>717</v>
+    <row r="287" ht="409.5" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F287" s="3">
         <v>400</v>
@@ -23692,21 +23689,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="288" ht="240" spans="1:7">
-      <c r="A288" t="s">
-        <v>718</v>
+    <row r="288" ht="409.5" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F288" s="3">
         <v>400</v>
@@ -23716,11 +23713,11 @@
       </c>
     </row>
     <row r="289" ht="409.5" spans="1:7">
-      <c r="A289" t="s">
-        <v>719</v>
+      <c r="A289" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -23729,7 +23726,7 @@
         <v>56</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="F289" s="3">
         <v>400</v>
@@ -23739,11 +23736,11 @@
       </c>
     </row>
     <row r="290" ht="409.5" spans="1:7">
-      <c r="A290" t="s">
-        <v>720</v>
+      <c r="A290" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -23752,7 +23749,7 @@
         <v>56</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F290" s="3">
         <v>400</v>
@@ -23762,11 +23759,11 @@
       </c>
     </row>
     <row r="291" ht="409.5" spans="1:7">
-      <c r="A291" t="s">
-        <v>721</v>
+      <c r="A291" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -23775,7 +23772,7 @@
         <v>56</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F291" s="3">
         <v>400</v>
@@ -23785,11 +23782,11 @@
       </c>
     </row>
     <row r="292" ht="409.5" spans="1:7">
-      <c r="A292" t="s">
-        <v>722</v>
+      <c r="A292" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -23798,7 +23795,7 @@
         <v>56</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F292" s="3">
         <v>400</v>
@@ -23808,11 +23805,11 @@
       </c>
     </row>
     <row r="293" ht="409.5" spans="1:7">
-      <c r="A293" t="s">
-        <v>723</v>
+      <c r="A293" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -23821,7 +23818,7 @@
         <v>56</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F293" s="3">
         <v>400</v>
@@ -23831,11 +23828,11 @@
       </c>
     </row>
     <row r="294" ht="409.5" spans="1:7">
-      <c r="A294" t="s">
-        <v>724</v>
+      <c r="A294" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -23844,7 +23841,7 @@
         <v>56</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F294" s="3">
         <v>400</v>
@@ -23854,11 +23851,11 @@
       </c>
     </row>
     <row r="295" ht="409.5" spans="1:7">
-      <c r="A295" t="s">
-        <v>725</v>
+      <c r="A295" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -23867,7 +23864,7 @@
         <v>56</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F295" s="3">
         <v>400</v>
@@ -23877,11 +23874,11 @@
       </c>
     </row>
     <row r="296" ht="409.5" spans="1:7">
-      <c r="A296" t="s">
-        <v>726</v>
+      <c r="A296" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -23890,7 +23887,7 @@
         <v>56</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F296" s="3">
         <v>400</v>
@@ -23900,11 +23897,11 @@
       </c>
     </row>
     <row r="297" ht="409.5" spans="1:7">
-      <c r="A297" t="s">
-        <v>727</v>
+      <c r="A297" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -23913,7 +23910,7 @@
         <v>56</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F297" s="3">
         <v>400</v>
@@ -23923,11 +23920,11 @@
       </c>
     </row>
     <row r="298" ht="409.5" spans="1:7">
-      <c r="A298" t="s">
-        <v>728</v>
+      <c r="A298" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -23936,7 +23933,7 @@
         <v>56</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F298" s="3">
         <v>400</v>
@@ -23946,11 +23943,11 @@
       </c>
     </row>
     <row r="299" ht="409.5" spans="1:7">
-      <c r="A299" t="s">
-        <v>729</v>
+      <c r="A299" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -23959,7 +23956,7 @@
         <v>56</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F299" s="3">
         <v>400</v>
@@ -23969,11 +23966,11 @@
       </c>
     </row>
     <row r="300" ht="409.5" spans="1:7">
-      <c r="A300" t="s">
-        <v>730</v>
+      <c r="A300" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -23982,7 +23979,7 @@
         <v>56</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F300" s="3">
         <v>400</v>
@@ -23992,11 +23989,11 @@
       </c>
     </row>
     <row r="301" ht="409.5" spans="1:7">
-      <c r="A301" t="s">
-        <v>731</v>
+      <c r="A301" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -24005,7 +24002,7 @@
         <v>56</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F301" s="3">
         <v>400</v>
@@ -24015,11 +24012,11 @@
       </c>
     </row>
     <row r="302" ht="409.5" spans="1:7">
-      <c r="A302" t="s">
-        <v>732</v>
+      <c r="A302" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -24028,7 +24025,7 @@
         <v>56</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F302" s="3">
         <v>400</v>
@@ -24038,11 +24035,11 @@
       </c>
     </row>
     <row r="303" ht="409.5" spans="1:7">
-      <c r="A303" t="s">
-        <v>733</v>
+      <c r="A303" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -24051,7 +24048,7 @@
         <v>56</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F303" s="3">
         <v>400</v>
@@ -24061,11 +24058,11 @@
       </c>
     </row>
     <row r="304" ht="409.5" spans="1:7">
-      <c r="A304" t="s">
-        <v>734</v>
+      <c r="A304" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -24074,7 +24071,7 @@
         <v>56</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F304" s="3">
         <v>400</v>
@@ -24084,11 +24081,11 @@
       </c>
     </row>
     <row r="305" ht="409.5" spans="1:7">
-      <c r="A305" t="s">
-        <v>735</v>
+      <c r="A305" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -24097,7 +24094,7 @@
         <v>56</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F305" s="3">
         <v>400</v>
@@ -24107,11 +24104,11 @@
       </c>
     </row>
     <row r="306" ht="409.5" spans="1:7">
-      <c r="A306" t="s">
-        <v>736</v>
+      <c r="A306" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -24120,7 +24117,7 @@
         <v>56</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F306" s="3">
         <v>400</v>
@@ -24130,11 +24127,11 @@
       </c>
     </row>
     <row r="307" ht="409.5" spans="1:7">
-      <c r="A307" t="s">
-        <v>737</v>
+      <c r="A307" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -24143,7 +24140,7 @@
         <v>56</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F307" s="3">
         <v>400</v>
@@ -24153,11 +24150,11 @@
       </c>
     </row>
     <row r="308" ht="409.5" spans="1:7">
-      <c r="A308" t="s">
-        <v>738</v>
+      <c r="A308" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -24166,7 +24163,7 @@
         <v>56</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F308" s="3">
         <v>400</v>
@@ -24176,11 +24173,11 @@
       </c>
     </row>
     <row r="309" ht="409.5" spans="1:7">
-      <c r="A309" t="s">
-        <v>739</v>
+      <c r="A309" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -24189,7 +24186,7 @@
         <v>56</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F309" s="3">
         <v>400</v>
@@ -24199,11 +24196,11 @@
       </c>
     </row>
     <row r="310" ht="409.5" spans="1:7">
-      <c r="A310" t="s">
-        <v>740</v>
+      <c r="A310" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -24212,7 +24209,7 @@
         <v>56</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F310" s="3">
         <v>400</v>
@@ -24222,11 +24219,11 @@
       </c>
     </row>
     <row r="311" ht="409.5" spans="1:7">
-      <c r="A311" t="s">
-        <v>741</v>
+      <c r="A311" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -24235,7 +24232,7 @@
         <v>56</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F311" s="3">
         <v>400</v>
@@ -24245,11 +24242,11 @@
       </c>
     </row>
     <row r="312" ht="409.5" spans="1:7">
-      <c r="A312" t="s">
-        <v>742</v>
+      <c r="A312" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -24258,7 +24255,7 @@
         <v>56</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F312" s="3">
         <v>400</v>
@@ -24268,11 +24265,11 @@
       </c>
     </row>
     <row r="313" ht="409.5" spans="1:7">
-      <c r="A313" t="s">
-        <v>743</v>
+      <c r="A313" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -24281,7 +24278,7 @@
         <v>56</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F313" s="3">
         <v>400</v>
@@ -24291,11 +24288,11 @@
       </c>
     </row>
     <row r="314" ht="409.5" spans="1:7">
-      <c r="A314" t="s">
-        <v>744</v>
+      <c r="A314" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -24304,7 +24301,7 @@
         <v>56</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F314" s="3">
         <v>400</v>
@@ -24314,11 +24311,11 @@
       </c>
     </row>
     <row r="315" ht="409.5" spans="1:7">
-      <c r="A315" t="s">
-        <v>745</v>
+      <c r="A315" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -24327,7 +24324,7 @@
         <v>56</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F315" s="3">
         <v>400</v>
@@ -24337,11 +24334,11 @@
       </c>
     </row>
     <row r="316" ht="409.5" spans="1:7">
-      <c r="A316" t="s">
-        <v>746</v>
+      <c r="A316" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -24350,7 +24347,7 @@
         <v>56</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F316" s="3">
         <v>400</v>
@@ -24360,11 +24357,11 @@
       </c>
     </row>
     <row r="317" ht="409.5" spans="1:7">
-      <c r="A317" t="s">
-        <v>747</v>
+      <c r="A317" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -24373,7 +24370,7 @@
         <v>56</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F317" s="3">
         <v>400</v>
@@ -24383,11 +24380,11 @@
       </c>
     </row>
     <row r="318" ht="409.5" spans="1:7">
-      <c r="A318" t="s">
-        <v>748</v>
+      <c r="A318" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -24396,7 +24393,7 @@
         <v>56</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F318" s="3">
         <v>400</v>
@@ -24406,11 +24403,11 @@
       </c>
     </row>
     <row r="319" ht="409.5" spans="1:7">
-      <c r="A319" t="s">
-        <v>749</v>
+      <c r="A319" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -24419,7 +24416,7 @@
         <v>56</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F319" s="3">
         <v>400</v>
@@ -24429,11 +24426,11 @@
       </c>
     </row>
     <row r="320" ht="409.5" spans="1:7">
-      <c r="A320" t="s">
-        <v>750</v>
+      <c r="A320" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -24442,7 +24439,7 @@
         <v>56</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F320" s="3">
         <v>400</v>
@@ -24452,11 +24449,11 @@
       </c>
     </row>
     <row r="321" ht="409.5" spans="1:7">
-      <c r="A321" t="s">
-        <v>751</v>
+      <c r="A321" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -24465,7 +24462,7 @@
         <v>56</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F321" s="3">
         <v>400</v>
@@ -24475,11 +24472,11 @@
       </c>
     </row>
     <row r="322" ht="409.5" spans="1:7">
-      <c r="A322" t="s">
-        <v>752</v>
+      <c r="A322" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -24488,7 +24485,7 @@
         <v>56</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F322" s="3">
         <v>400</v>
@@ -24498,11 +24495,11 @@
       </c>
     </row>
     <row r="323" ht="409.5" spans="1:7">
-      <c r="A323" t="s">
-        <v>753</v>
+      <c r="A323" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -24511,7 +24508,7 @@
         <v>56</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F323" s="3">
         <v>400</v>
@@ -24521,11 +24518,11 @@
       </c>
     </row>
     <row r="324" ht="409.5" spans="1:7">
-      <c r="A324" t="s">
-        <v>754</v>
+      <c r="A324" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -24534,7 +24531,7 @@
         <v>56</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F324" s="3">
         <v>400</v>
@@ -24544,11 +24541,11 @@
       </c>
     </row>
     <row r="325" ht="409.5" spans="1:7">
-      <c r="A325" t="s">
-        <v>755</v>
+      <c r="A325" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -24557,7 +24554,7 @@
         <v>56</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="F325" s="3">
         <v>400</v>
@@ -24567,11 +24564,11 @@
       </c>
     </row>
     <row r="326" ht="409.5" spans="1:7">
-      <c r="A326" t="s">
-        <v>756</v>
+      <c r="A326" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -24580,7 +24577,7 @@
         <v>56</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F326" s="3">
         <v>400</v>
@@ -24590,8 +24587,8 @@
       </c>
     </row>
     <row r="327" ht="409.5" spans="1:7">
-      <c r="A327" t="s">
-        <v>757</v>
+      <c r="A327" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>630</v>
@@ -24603,7 +24600,7 @@
         <v>56</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F327" s="3">
         <v>400</v>
@@ -24613,11 +24610,11 @@
       </c>
     </row>
     <row r="328" ht="409.5" spans="1:7">
-      <c r="A328" t="s">
-        <v>758</v>
+      <c r="A328" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -24626,7 +24623,7 @@
         <v>56</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F328" s="3">
         <v>400</v>
@@ -24636,11 +24633,11 @@
       </c>
     </row>
     <row r="329" ht="409.5" spans="1:7">
-      <c r="A329" t="s">
-        <v>759</v>
+      <c r="A329" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -24649,7 +24646,7 @@
         <v>56</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="F329" s="3">
         <v>400</v>
@@ -24659,80 +24656,80 @@
       </c>
     </row>
     <row r="330" ht="409.5" spans="1:7">
-      <c r="A330" t="s">
-        <v>760</v>
+      <c r="A330" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="F330" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G330" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="331" ht="409.5" spans="1:7">
-      <c r="A331" t="s">
-        <v>761</v>
+      <c r="A331" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F331" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G331" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="332" ht="409.5" spans="1:7">
-      <c r="A332" t="s">
-        <v>762</v>
+      <c r="A332" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F332" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G332" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="333" ht="409.5" spans="1:7">
-      <c r="A333" t="s">
-        <v>763</v>
+      <c r="A333" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>525</v>
+        <v>646</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -24741,7 +24738,7 @@
         <v>30</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="F333" s="3">
         <v>200</v>
@@ -24751,11 +24748,11 @@
       </c>
     </row>
     <row r="334" ht="409.5" spans="1:7">
-      <c r="A334" t="s">
-        <v>764</v>
+      <c r="A334" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -24764,21 +24761,21 @@
         <v>30</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F334" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G334" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="335" ht="409.5" spans="1:7">
-      <c r="A335" t="s">
-        <v>765</v>
+      <c r="A335" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -24787,21 +24784,21 @@
         <v>30</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="F335" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G335" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="336" ht="409.5" spans="1:7">
-      <c r="A336" t="s">
-        <v>766</v>
+      <c r="A336" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -24810,21 +24807,21 @@
         <v>30</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="F336" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G336" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="337" ht="409.5" spans="1:7">
-      <c r="A337" t="s">
-        <v>767</v>
+      <c r="A337" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -24833,21 +24830,21 @@
         <v>30</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F337" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G337" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="338" ht="409.5" spans="1:7">
-      <c r="A338" t="s">
-        <v>768</v>
+      <c r="A338" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -24856,7 +24853,7 @@
         <v>30</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F338" s="3">
         <v>400</v>
@@ -24865,81 +24862,81 @@
         <v>392</v>
       </c>
     </row>
-    <row r="339" ht="409.5" spans="1:7">
-      <c r="A339" t="s">
-        <v>769</v>
+    <row r="339" ht="255" spans="1:7">
+      <c r="A339" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F339" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G339" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="340" ht="409.5" spans="1:7">
-      <c r="A340" t="s">
-        <v>770</v>
+    <row r="340" ht="255" spans="1:7">
+      <c r="A340" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F340" s="3">
+        <v>400</v>
+      </c>
+      <c r="G340" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="341" ht="315" spans="1:7">
+      <c r="A341" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+      <c r="D341" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="F341" s="3">
         <v>200</v>
       </c>
-      <c r="G340" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="341" ht="409.5" spans="1:7">
-      <c r="A341" t="s">
-        <v>771</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C341" t="s">
-        <v>5</v>
-      </c>
-      <c r="D341" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E341" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="F341" s="3">
-        <v>400</v>
-      </c>
       <c r="G341" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="342" ht="255" spans="1:7">
-      <c r="A342" t="s">
-        <v>772</v>
+      <c r="A342" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -24948,86 +24945,17 @@
         <v>105</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F342" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G342" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="343" ht="255" spans="1:7">
-      <c r="A343" t="s">
-        <v>773</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C343" t="s">
-        <v>5</v>
-      </c>
-      <c r="D343" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E343" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="F343" s="3">
-        <v>400</v>
-      </c>
-      <c r="G343" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="344" ht="315" spans="1:7">
-      <c r="A344" t="s">
-        <v>774</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C344" t="s">
-        <v>5</v>
-      </c>
-      <c r="D344" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E344" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="F344" s="3">
-        <v>200</v>
-      </c>
-      <c r="G344" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="345" ht="255" spans="1:7">
-      <c r="A345" t="s">
-        <v>775</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C345" t="s">
-        <v>5</v>
-      </c>
-      <c r="D345" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E345" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="F345" s="3">
-        <v>400</v>
-      </c>
-      <c r="G345" t="s">
-        <v>392</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G345">
+  <autoFilter ref="A1:G342">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
